--- a/Ofgem_Archetype/Ofgem energy consumer archetypes2024_Tables1.xlsx
+++ b/Ofgem_Archetype/Ofgem energy consumer archetypes2024_Tables1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyang8\MUSE_models\MUSE_buildings\Ofgem_Archetype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8C3569-5456-491C-B076-6D29B12612DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F73A32-F1B3-444F-B07B-F0EAF1056843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_1" sheetId="1" r:id="rId1"/>
-    <sheet name="cleaned" sheetId="5" r:id="rId2"/>
-    <sheet name="gas_elec_correlation" sheetId="3" r:id="rId3"/>
-    <sheet name="hot_water" sheetId="2" r:id="rId4"/>
-    <sheet name="cooking" sheetId="4" r:id="rId5"/>
+    <sheet name="original" sheetId="6" r:id="rId1"/>
+    <sheet name="Table_1" sheetId="1" r:id="rId2"/>
+    <sheet name="cleaned" sheetId="5" r:id="rId3"/>
+    <sheet name="gas_elec_correlation" sheetId="3" r:id="rId4"/>
+    <sheet name="hot_water" sheetId="2" r:id="rId5"/>
+    <sheet name="cooking" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="81">
   <si>
     <t>Archetype</t>
   </si>
@@ -329,6 +330,9 @@
   </si>
   <si>
     <t>consumption ratio for cooking</t>
+  </si>
+  <si>
+    <t>Gross annual household income</t>
   </si>
 </sst>
 </file>
@@ -663,7 +667,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="33">
     <dxf>
       <font>
         <b val="0"/>
@@ -681,6 +685,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -766,6 +791,69 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2109,67 +2197,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7E90969-E15B-4BF1-BD2E-C520FC37D4F4}" name="Table2" displayName="Table2" ref="A1:K25" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E0291ED1-55BD-41FA-A722-BDB33D9B53CB}" name="Table26" displayName="Table26" ref="A1:G25" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:G25" xr:uid="{E0291ED1-55BD-41FA-A722-BDB33D9B53CB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{323221CE-3688-4135-A62B-5ABBB2420412}" name="Archetype" dataCellStyle="Note"/>
+    <tableColumn id="2" xr3:uid="{B890CD22-FB7F-4482-9DA9-A43B6EC2CD70}" name="Number of_x000a_households" dataDxfId="3" dataCellStyle="Note"/>
+    <tableColumn id="5" xr3:uid="{8C396CA0-D8E0-4837-9776-A732D8EFCEA0}" name="Average Annual Elec consumption (kWh)" dataDxfId="2" dataCellStyle="Note"/>
+    <tableColumn id="6" xr3:uid="{A8BFA2DC-87A2-4AA2-B6F3-0101B20043BC}" name="Average Annual Gas consumption (kWh)" dataCellStyle="Note"/>
+    <tableColumn id="3" xr3:uid="{829949E4-6D25-4502-BFAE-7261E5BA8B28}" name="Main heating Fuel" dataDxfId="1" dataCellStyle="Note"/>
+    <tableColumn id="4" xr3:uid="{5E315949-9A1C-4E44-9F12-CF96A9AB86F1}" name="Gross annual household income" dataDxfId="0" dataCellStyle="Note"/>
+    <tableColumn id="8" xr3:uid="{69D5A079-7F76-4BFC-BBB4-33B5CC5BEA67}" name="Attributes (key words)" dataCellStyle="Explanatory Text"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7E90969-E15B-4BF1-BD2E-C520FC37D4F4}" name="Table2" displayName="Table2" ref="A1:K25" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
   <autoFilter ref="A1:K25" xr:uid="{A7E90969-E15B-4BF1-BD2E-C520FC37D4F4}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{2675892E-3A3E-4351-8FF0-744B0674CC78}" name="Archetype" dataCellStyle="Note"/>
-    <tableColumn id="2" xr3:uid="{D62DBA25-0F9D-4285-B590-4C4263BDD939}" name="Number of_x000a_households" dataDxfId="22" dataCellStyle="Note"/>
-    <tableColumn id="10" xr3:uid="{1D7D1408-00AE-423A-8787-B4710DD581DB}" name="ratio of households number" dataDxfId="21" dataCellStyle="Calculation">
+    <tableColumn id="2" xr3:uid="{D62DBA25-0F9D-4285-B590-4C4263BDD939}" name="Number of_x000a_households" dataDxfId="29" dataCellStyle="Note"/>
+    <tableColumn id="10" xr3:uid="{1D7D1408-00AE-423A-8787-B4710DD581DB}" name="ratio of households number" dataDxfId="28" dataCellStyle="Calculation">
       <calculatedColumnFormula>Table2[[#This Row],[Number of
 households]]/$B$26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{77B1BAA1-82E3-4162-8091-92ED97E08D8F}" name="Average Annual Elec consumption (kWh)" dataDxfId="20" dataCellStyle="Note"/>
-    <tableColumn id="9" xr3:uid="{3199F5EE-4FD9-414D-B8F1-A1D718564B95}" name="ratio  of Average Annual Elec consumption" dataDxfId="19" dataCellStyle="Calculation">
+    <tableColumn id="5" xr3:uid="{77B1BAA1-82E3-4162-8091-92ED97E08D8F}" name="Average Annual Elec consumption (kWh)" dataDxfId="27" dataCellStyle="Note"/>
+    <tableColumn id="9" xr3:uid="{3199F5EE-4FD9-414D-B8F1-A1D718564B95}" name="ratio  of Average Annual Elec consumption" dataDxfId="26" dataCellStyle="Calculation">
       <calculatedColumnFormula>Table2[[#This Row],[Average Annual Elec consumption (kWh)]]/$D$27</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{EF8CBC5F-03B2-45AB-B97A-CE7DB3A33DB8}" name="Average Annual Gas consumption (kWh)" dataCellStyle="Note"/>
-    <tableColumn id="11" xr3:uid="{A61599F6-EF83-47A5-BABA-F98185FBF9A0}" name="ratio of Average Annual Gas consumption" dataDxfId="18" dataCellStyle="Calculation">
+    <tableColumn id="11" xr3:uid="{A61599F6-EF83-47A5-BABA-F98185FBF9A0}" name="ratio of Average Annual Gas consumption" dataDxfId="25" dataCellStyle="Calculation">
       <calculatedColumnFormula>Table2[[#This Row],[Average Annual Gas consumption (kWh)]]/$F$27</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{25D98A49-C6CE-47C3-BDF5-FF55D2614A3A}" name="Total consumption (Elec+Gas) in KWh" dataDxfId="17" dataCellStyle="Calculation">
+    <tableColumn id="7" xr3:uid="{25D98A49-C6CE-47C3-BDF5-FF55D2614A3A}" name="Total consumption (Elec+Gas) in KWh" dataDxfId="24" dataCellStyle="Calculation">
       <calculatedColumnFormula>Table2[[#This Row],[Average Annual Elec consumption (kWh)]]+Table2[[#This Row],[Average Annual Gas consumption (kWh)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0A9FA9C5-0835-42BC-BF3C-214CEF3708C6}" name="Main heating Fuel" dataDxfId="16" dataCellStyle="Note"/>
-    <tableColumn id="4" xr3:uid="{38FF6D0A-1740-45B4-8A44-163AAF9C0481}" name="Gross_x000a_annual_x000a_household_x000a_income" dataDxfId="15" dataCellStyle="Note"/>
+    <tableColumn id="3" xr3:uid="{0A9FA9C5-0835-42BC-BF3C-214CEF3708C6}" name="Main heating Fuel" dataDxfId="23" dataCellStyle="Note"/>
+    <tableColumn id="4" xr3:uid="{38FF6D0A-1740-45B4-8A44-163AAF9C0481}" name="Gross_x000a_annual_x000a_household_x000a_income" dataDxfId="22" dataCellStyle="Note"/>
     <tableColumn id="8" xr3:uid="{C2246051-CE6D-457A-B33F-D6ED56AD5CDA}" name="Attributes (key words)" dataCellStyle="Explanatory Text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{64AB107E-C55D-4AFF-9516-6A52E9DEB1F9}" name="Table25" displayName="Table25" ref="A1:D25" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{64AB107E-C55D-4AFF-9516-6A52E9DEB1F9}" name="Table25" displayName="Table25" ref="A1:D25" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A1:D25" xr:uid="{64AB107E-C55D-4AFF-9516-6A52E9DEB1F9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{042F5521-FB5E-4406-94A8-A4FEA6B01EF0}" name="Archetype" dataCellStyle="Note"/>
-    <tableColumn id="5" xr3:uid="{94BFEEC6-90A7-4F1B-914E-3C5C349CD749}" name="Average Annual Elec consumption (kWh)" dataDxfId="1" dataCellStyle="Note"/>
+    <tableColumn id="5" xr3:uid="{94BFEEC6-90A7-4F1B-914E-3C5C349CD749}" name="Average Annual Elec consumption (kWh)" dataDxfId="18" dataCellStyle="Note"/>
     <tableColumn id="6" xr3:uid="{8D04995B-21EB-45FB-AC59-FD9A2B36BD10}" name="Average Annual Gas consumption (kWh)" dataCellStyle="Note"/>
-    <tableColumn id="3" xr3:uid="{FE23D23F-C981-4F60-80BE-A14A0E832CC8}" name="Main heating Fuel" dataDxfId="0" dataCellStyle="Note"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96AD01AF-F18B-456A-9F85-E1DA20551F69}" name="Table22" displayName="Table22" ref="A1:D20" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:D20" xr:uid="{96AD01AF-F18B-456A-9F85-E1DA20551F69}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4DB538E7-4AC8-43A9-A441-90C3C124FFD1}" name="Archetype" dataCellStyle="Note"/>
-    <tableColumn id="5" xr3:uid="{3AF2D4D5-5348-43E7-9D2C-13FB1C3FB101}" name="Average Annual Elec consumption (kWh)" dataDxfId="11" dataCellStyle="Note"/>
-    <tableColumn id="6" xr3:uid="{382EF625-CB22-48FE-A8F7-E837B3A01039}" name="Average Annual Gas consumption (kWh)" dataCellStyle="Note"/>
-    <tableColumn id="3" xr3:uid="{111906C4-F931-4926-9CEF-C9586E9FE3AC}" name="Main heating Fuel" dataDxfId="10" dataCellStyle="Note"/>
+    <tableColumn id="3" xr3:uid="{FE23D23F-C981-4F60-80BE-A14A0E832CC8}" name="Main heating Fuel" dataDxfId="17" dataCellStyle="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4246EC73-E2A9-483B-8EF8-51272100BE0E}" name="Table224" displayName="Table224" ref="A1:D26" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96AD01AF-F18B-456A-9F85-E1DA20551F69}" name="Table22" displayName="Table22" ref="A1:D20" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:D20" xr:uid="{96AD01AF-F18B-456A-9F85-E1DA20551F69}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4DB538E7-4AC8-43A9-A441-90C3C124FFD1}" name="Archetype" dataCellStyle="Note"/>
+    <tableColumn id="5" xr3:uid="{3AF2D4D5-5348-43E7-9D2C-13FB1C3FB101}" name="Average Annual Elec consumption (kWh)" dataDxfId="13" dataCellStyle="Note"/>
+    <tableColumn id="6" xr3:uid="{382EF625-CB22-48FE-A8F7-E837B3A01039}" name="Average Annual Gas consumption (kWh)" dataCellStyle="Note"/>
+    <tableColumn id="3" xr3:uid="{111906C4-F931-4926-9CEF-C9586E9FE3AC}" name="Main heating Fuel" dataDxfId="12" dataCellStyle="Note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4246EC73-E2A9-483B-8EF8-51272100BE0E}" name="Table224" displayName="Table224" ref="A1:D26" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:D26" xr:uid="{4246EC73-E2A9-483B-8EF8-51272100BE0E}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EB10B613-AB42-4DE2-B04D-FDA3DB5D7D31}" name="Archetype" dataCellStyle="Note"/>
-    <tableColumn id="2" xr3:uid="{28448FA2-3889-4A0C-9F08-1687E8DE120D}" name="Main heating Fuel" dataDxfId="6" dataCellStyle="Note"/>
-    <tableColumn id="5" xr3:uid="{55CD23DA-9E65-45D6-963C-C3E5CE2D45FA}" name="Average Annual Elec consumption (kWh)" dataDxfId="5" dataCellStyle="Note"/>
+    <tableColumn id="2" xr3:uid="{28448FA2-3889-4A0C-9F08-1687E8DE120D}" name="Main heating Fuel" dataDxfId="8" dataCellStyle="Note"/>
+    <tableColumn id="5" xr3:uid="{55CD23DA-9E65-45D6-963C-C3E5CE2D45FA}" name="Average Annual Elec consumption (kWh)" dataDxfId="7" dataCellStyle="Note"/>
     <tableColumn id="6" xr3:uid="{E226F317-5F94-4184-926F-960C07E10A8F}" name="Average Annual Gas consumption (kWh)" dataCellStyle="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2460,6 +2564,608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9C9B8D-478B-46ED-B427-93C66B5F68A8}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="6" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>578333</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2742</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10933</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>15643</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>868191</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2849</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9464</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>17327</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>883413</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3519</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10622</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>18195</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>731318</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4811</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>18776</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>465288</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6597</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="6">
+        <v>22423</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>920172</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3028</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10525</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>24869</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>659595</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3649</v>
+      </c>
+      <c r="D8" s="5">
+        <v>13119</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>29257</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>228477</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5587</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>32240</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3408514</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3337</v>
+      </c>
+      <c r="D10" s="5">
+        <v>13685</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>32344</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1163946</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3881</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13981</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>31819</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1197075</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2482</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8782</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>40980</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1457829</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3952</v>
+      </c>
+      <c r="D13" s="5">
+        <v>16065</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>38927</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>690892</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5075</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16722</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>38351</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1178684</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4070</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14606</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43026</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>323433</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6883</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="6">
+        <v>46005</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3">
+        <v>989639</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4317</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>50721</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3">
+        <v>163166</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5901</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="6">
+        <v>44586</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>667836</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5294</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="6">
+        <v>49265</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3">
+        <v>675712</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4907</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="6">
+        <v>52621</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3540270</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3143</v>
+      </c>
+      <c r="D21" s="5">
+        <v>11677</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>58924</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2210494</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4070</v>
+      </c>
+      <c r="D22" s="5">
+        <v>15461</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>59668</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1792593</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4684</v>
+      </c>
+      <c r="D23" s="5">
+        <v>18530</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6">
+        <v>68332</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1956103</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4532</v>
+      </c>
+      <c r="D24" s="5">
+        <v>16330</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>74795</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3">
+        <v>231658</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7523</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="6">
+        <v>78813</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -3531,11 +4237,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796C3EFD-F767-4793-873F-1E6CE52BB4F5}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -3907,7 +4613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AF2802-7DFE-4025-9D0D-E308B0F5D8C6}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4285,7 +4991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7DBE52-B818-451C-BC91-D2BE69E6FB4B}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -4826,7 +5532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34073C7-797F-4C9C-A9C1-3F6C9B067969}">
   <dimension ref="A1:F29"/>
   <sheetViews>
